--- a/Dictionnaire des données.xlsx
+++ b/Dictionnaire des données.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mélissa\Documents\GitHub\ReseauAdmission_Model-BD-Java_H15\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="408" windowWidth="19200" windowHeight="7404"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="19200" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -755,7 +750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,22 +758,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G28"/>
+  <dimension ref="C2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="7" max="7" width="59.21875" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:7" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
         <v>4</v>
@@ -796,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
@@ -811,7 +806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
@@ -826,7 +821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
@@ -841,7 +836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
@@ -856,7 +851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
@@ -884,7 +879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
@@ -899,7 +894,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
@@ -914,7 +909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
@@ -929,7 +924,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
@@ -944,7 +939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
@@ -959,7 +954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" ht="43.15" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
@@ -974,7 +969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" ht="28.9" x14ac:dyDescent="0.3">
       <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
@@ -989,7 +984,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1014,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
         <v>18</v>
       </c>
@@ -1034,7 +1029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
@@ -1049,7 +1044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1064,7 +1059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" ht="60" x14ac:dyDescent="0.25">
       <c r="C23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1094,7 +1089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1104,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="12" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>64</v>
       </c>
@@ -1139,7 +1134,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="17" t="s">
         <v>25</v>
       </c>
@@ -1154,7 +1149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>

--- a/Dictionnaire des données.xlsx
+++ b/Dictionnaire des données.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="19200" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="19200" windowHeight="7410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
   <si>
     <t>Contraintes</t>
   </si>
@@ -232,13 +233,103 @@
   </si>
   <si>
     <t>Doit correspondre à un nombre de 1 à N                                                   Not null</t>
+  </si>
+  <si>
+    <t>Priorité</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Risque</t>
+  </si>
+  <si>
+    <t>Scénario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant que client, je dois pouvoir m'inscrire sur le site de vente. </t>
+  </si>
+  <si>
+    <t>En tant que client, je dois pouvoir me connecter et me deconnecter du site de vente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant que client, je peux ajouter, modifier ou supprimer des billets dans mon panier d'achat. </t>
+  </si>
+  <si>
+    <t>En tant que client, je peux consulter la liste complète de spectacles.</t>
+  </si>
+  <si>
+    <t>En tant que client, je peux consulter une liste de spectacles classées par catégorie.</t>
+  </si>
+  <si>
+    <t>En tant que client, je peux consulter une liste de spectacles classées par salle.</t>
+  </si>
+  <si>
+    <t>En tant que client, je peux consulter une liste de spectacles classées par nom d'artiste.</t>
+  </si>
+  <si>
+    <t>En tant que client, je peux consulter une liste de spectacles en combinant plusieurs catégories.</t>
+  </si>
+  <si>
+    <t>En tant que client, je ne peux acheter une quantité de billet plus grande que le nombre de billet disponible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant qu'employé, je peux consulter les statistiques des billets de spectacle vendu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant qu'employé, je dois pouvoir ajouter un spectacle à venir dans la base de données. </t>
+  </si>
+  <si>
+    <t>En tant qu'employé, je dois pouvoir consulter les informations clients pour la livraison de billets.</t>
+  </si>
+  <si>
+    <t>En tant qu'employé, je peux consulter le nombre de billets disponibles.</t>
+  </si>
+  <si>
+    <t>Implémenter la base de données (Créer les tables et les contraintes)</t>
+  </si>
+  <si>
+    <t>Insérer des valeurs dans les tables qui ne peuvent changer (Catégorie, Salle, Section)</t>
+  </si>
+  <si>
+    <t>Créer les packages pour les commandes SQL (Recherche, Panier/Facture, Application Locale)</t>
+  </si>
+  <si>
+    <t>Développer l'application locale (Structure et design sans fonctionnalités)</t>
+  </si>
+  <si>
+    <t>Développer le site web (Structure et design sans fonctionnalités)</t>
+  </si>
+  <si>
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>En tant que client, je peux visualiser ma facture et son numero.</t>
+  </si>
+  <si>
+    <t>Should have</t>
+  </si>
+  <si>
+    <t>Must have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant qu'employé, je peux lister la liste des clients ayant achetés le plus de billet. </t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +340,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -281,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -424,11 +523,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -478,6 +661,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -760,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,4 +1400,318 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="30">
+        <v>3</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="30">
+        <v>1</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="30">
+        <v>2</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="30">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="31">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="30">
+        <v>4</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="31">
+        <v>4</v>
+      </c>
+      <c r="E22" s="33">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="39">
+        <v>2</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dictionnaire des données.xlsx
+++ b/Dictionnaire des données.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="19200" windowHeight="7410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="19200" windowHeight="7410" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="142">
   <si>
     <t>Contraintes</t>
   </si>
@@ -172,9 +168,6 @@
     <t>Varchar(2)</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -323,6 +316,132 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Impossible</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Recherche par catégorie</t>
+  </si>
+  <si>
+    <t>Aucun résultat</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>Champ vide</t>
+  </si>
+  <si>
+    <t>Identification avant achat</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Tout les spectacles de cette catégorie</t>
+  </si>
+  <si>
+    <t>Données testées</t>
+  </si>
+  <si>
+    <t>Valeur du test</t>
+  </si>
+  <si>
+    <t>Résultat attendu</t>
+  </si>
+  <si>
+    <t>&gt; Quantité en stock</t>
+  </si>
+  <si>
+    <t>&lt; Quantité en stock</t>
+  </si>
+  <si>
+    <t>Égal Quantité en stock</t>
+  </si>
+  <si>
+    <t>Suppression de billet dans le panier</t>
+  </si>
+  <si>
+    <t>Suppression totale</t>
+  </si>
+  <si>
+    <t>Quantité de billet (Achat)</t>
+  </si>
+  <si>
+    <t>Catégorie innexistante</t>
+  </si>
+  <si>
+    <t>Catégorie existante</t>
+  </si>
+  <si>
+    <t>Quantité de billet (Modification)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantité de billet (Modification)    </t>
+  </si>
+  <si>
+    <t>Nombre valide</t>
+  </si>
+  <si>
+    <t>&gt;= 0</t>
+  </si>
+  <si>
+    <t>Ajout de billet (Panier)</t>
+  </si>
+  <si>
+    <t>Ajout de N billet(s)</t>
+  </si>
+  <si>
+    <t>Client existant</t>
+  </si>
+  <si>
+    <t>Client innexistant</t>
+  </si>
+  <si>
+    <t>Achat de billets differents (même facture)</t>
+  </si>
+  <si>
+    <t>3 spectacles différents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche par nom d'artiste    </t>
+  </si>
+  <si>
+    <t>Artiste existant</t>
+  </si>
+  <si>
+    <t>Nom innexistant</t>
+  </si>
+  <si>
+    <t>Recherche combinée (Catégorie)</t>
+  </si>
+  <si>
+    <t>Catégories existantes</t>
+  </si>
+  <si>
+    <t>Catégories innexistantes</t>
+  </si>
+  <si>
+    <t>Spectacles dans les catégories</t>
+  </si>
+  <si>
+    <t>Recherche par salle</t>
+  </si>
+  <si>
+    <t>Salle existante</t>
+  </si>
+  <si>
+    <t>Salle innexistante</t>
+  </si>
+  <si>
+    <t>Spectacles de cette salle</t>
   </si>
 </sst>
 </file>
@@ -611,16 +730,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -636,31 +753,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -718,6 +818,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,9 +869,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -990,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1000,405 +1139,451 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
     <col min="7" max="7" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="11" t="s">
-        <v>54</v>
+      <c r="F4" s="31">
+        <v>2</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="13" t="s">
-        <v>52</v>
+      <c r="F5" s="32">
+        <v>30</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
+      <c r="F6" s="31">
+        <v>3</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
+      <c r="F7" s="32">
+        <v>100</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="12" t="s">
+      <c r="F8" s="31">
+        <v>300</v>
+      </c>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
+      <c r="F9" s="32">
+        <v>300</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="31">
+        <v>2</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="32">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="31">
+        <v>4</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="3" t="s">
+    </row>
+    <row r="14" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="11" t="s">
+      <c r="F15" s="32">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="43.15" x14ac:dyDescent="0.3">
-      <c r="C15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
+    <row r="16" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="31">
+        <v>3</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="32">
+        <v>50</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="10" t="s">
+    <row r="18" spans="3:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C19" s="12" t="s">
+      <c r="F18" s="31">
+        <v>5</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
+      <c r="F19" s="32">
+        <v>100</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
+      <c r="F20" s="31">
+        <v>10</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
+      <c r="F21" s="32">
+        <v>20</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="11" t="s">
-        <v>52</v>
+      <c r="F22" s="31">
+        <v>20</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="14" t="s">
-        <v>67</v>
+      <c r="F23" s="32">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="32">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="15" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="26" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="17" t="s">
+      <c r="F26" s="31">
+        <v>2</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20" t="s">
-        <v>52</v>
+      <c r="F27" s="33">
+        <v>5.2</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1406,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,298 +1602,572 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="C9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="21">
+        <v>3</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="C13" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E14" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="34">
+    <row r="15" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="28">
+    <row r="17" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="21">
+        <v>2</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="34">
+    <row r="19" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="28">
+    <row r="20" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="36" t="s">
+    <row r="21" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="30">
-        <v>1</v>
-      </c>
-      <c r="E9" s="34">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="D21" s="21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="30">
-        <v>3</v>
-      </c>
-      <c r="E11" s="34">
+      <c r="D22" s="22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="24">
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="31">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+    <row r="23" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="30">
-        <v>1</v>
-      </c>
-      <c r="E13" s="34">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D23" s="30">
+        <v>2</v>
+      </c>
+      <c r="E23" s="29">
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="31">
-        <v>1</v>
-      </c>
-      <c r="E16" s="28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="30">
-        <v>2</v>
-      </c>
-      <c r="E17" s="35">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="31">
-        <v>1</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="30">
-        <v>1</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="31">
-        <v>1</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="30">
-        <v>4</v>
-      </c>
-      <c r="E21" s="32">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="31">
-        <v>4</v>
-      </c>
-      <c r="E22" s="33">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="39">
-        <v>2</v>
-      </c>
-      <c r="E23" s="38">
-        <v>0.4</v>
-      </c>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F9:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dictionnaire des données.xlsx
+++ b/Dictionnaire des données.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="19200" windowHeight="7410" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="19200" windowHeight="7410" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="166">
   <si>
     <t>Contraintes</t>
   </si>
@@ -442,6 +443,78 @@
   </si>
   <si>
     <t>Spectacles de cette salle</t>
+  </si>
+  <si>
+    <t># Sprint</t>
+  </si>
+  <si>
+    <t>Étapes à faire dans le sprint</t>
+  </si>
+  <si>
+    <t>Effort en heure</t>
+  </si>
+  <si>
+    <t>Sprint 1 (24 avril au 1 mai)</t>
+  </si>
+  <si>
+    <t>Sprint 0 (17 avril au 24 avril)</t>
+  </si>
+  <si>
+    <t>Sprint 2 (1 mai au 8 mai)</t>
+  </si>
+  <si>
+    <t>Sprint 3 (8 mai au 15 mai)</t>
+  </si>
+  <si>
+    <t>Sprint 4 (15 mai au 19 mai)</t>
+  </si>
+  <si>
+    <t>Analyse du projet                             Modélisation de la BD                   Modèle Relationnel      Prototype Application Locale</t>
+  </si>
+  <si>
+    <t>Interface Application Web   Implémentation des différentes fonctionnalités de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implémentation de la BD             Création des packages/triggers                         </t>
+  </si>
+  <si>
+    <t>Implémentation du panier et du système de facture Implémentation des comptes utilisateurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Locale               Debug App Web et Locale </t>
+  </si>
+  <si>
+    <t>Choses à faire</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>Mélissa</t>
+  </si>
+  <si>
+    <t>Frederic</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Insertion de base</t>
+  </si>
+  <si>
+    <t>Charlie, Melissa et Frederic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package Recherche                - Fonctions et Procédures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package Panier/Facture                - Fonctions et Procédures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package App locale                - Fonctions et Procédures </t>
   </si>
 </sst>
 </file>
@@ -730,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -860,6 +933,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,7 +1243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1905,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F9:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,4 +2287,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="60">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F20" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="62">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F21" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="62">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="65">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>